--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value490.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value490.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7935481285370376</v>
+        <v>1.279757499694824</v>
       </c>
       <c r="B1">
-        <v>1.167804396557689</v>
+        <v>3.246673345565796</v>
       </c>
       <c r="C1">
-        <v>2.477388810362363</v>
+        <v>5.883370399475098</v>
       </c>
       <c r="D1">
-        <v>3.964674135286471</v>
+        <v>1.761871218681335</v>
       </c>
       <c r="E1">
-        <v>1.490582849923756</v>
+        <v>1.033935904502869</v>
       </c>
     </row>
   </sheetData>
